--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value106.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value106.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.178498909840256</v>
+        <v>2.854561805725098</v>
       </c>
       <c r="B1">
-        <v>2.306803084050101</v>
+        <v>2.065648555755615</v>
       </c>
       <c r="C1">
-        <v>5.214205035673685</v>
+        <v>2.079057455062866</v>
       </c>
       <c r="D1">
-        <v>1.649763126731961</v>
+        <v>1.829973220825195</v>
       </c>
       <c r="E1">
-        <v>0.7822671900083399</v>
+        <v>1.363438367843628</v>
       </c>
     </row>
   </sheetData>
